--- a/config_7.13/prop_clear_server.xlsx
+++ b/config_7.13/prop_clear_server.xlsx
@@ -467,8 +467,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -523,15 +523,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,31 +583,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -589,11 +606,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -605,11 +621,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -623,23 +639,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -653,14 +653,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,31 +693,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,151 +873,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,39 +928,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -968,21 +935,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1005,6 +957,54 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1018,10 +1018,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1030,133 +1030,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1539,9 +1539,9 @@
   <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1664,7 +1664,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>16</v>
@@ -1724,7 +1724,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>22</v>
@@ -1733,7 +1733,7 @@
         <v>1620691200</v>
       </c>
       <c r="E9" s="8">
-        <v>1624291199</v>
+        <v>1626710399</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>23</v>
@@ -1744,7 +1744,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>24</v>
@@ -1753,7 +1753,7 @@
         <v>1620691200</v>
       </c>
       <c r="E10" s="8">
-        <v>1624291199</v>
+        <v>1626710399</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>25</v>
@@ -1764,7 +1764,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>26</v>
@@ -1773,7 +1773,7 @@
         <v>1620691200</v>
       </c>
       <c r="E11" s="8">
-        <v>1624291199</v>
+        <v>1626710399</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>27</v>
@@ -1784,7 +1784,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>28</v>
@@ -1793,7 +1793,7 @@
         <v>1620691200</v>
       </c>
       <c r="E12" s="8">
-        <v>1624291199</v>
+        <v>1626710399</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>29</v>
@@ -1804,7 +1804,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>30</v>
@@ -1813,7 +1813,7 @@
         <v>1620691200</v>
       </c>
       <c r="E13" s="8">
-        <v>1624291199</v>
+        <v>1626710399</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>31</v>
@@ -1824,7 +1824,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>32</v>
@@ -1833,7 +1833,7 @@
         <v>1620691200</v>
       </c>
       <c r="E14" s="8">
-        <v>1624291199</v>
+        <v>1626710399</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>33</v>
@@ -1844,7 +1844,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>34</v>
@@ -1853,7 +1853,7 @@
         <v>1620691200</v>
       </c>
       <c r="E15" s="8">
-        <v>1624291199</v>
+        <v>1626710399</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>35</v>
@@ -1864,7 +1864,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>36</v>
@@ -1873,7 +1873,7 @@
         <v>1620691200</v>
       </c>
       <c r="E16" s="8">
-        <v>1624291199</v>
+        <v>1626710399</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>37</v>
@@ -1884,7 +1884,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>38</v>
@@ -1893,7 +1893,7 @@
         <v>1620691200</v>
       </c>
       <c r="E17" s="8">
-        <v>1624291199</v>
+        <v>1626710399</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>39</v>

--- a/config_7.13/prop_clear_server.xlsx
+++ b/config_7.13/prop_clear_server.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="133">
   <si>
     <t>id|行号</t>
   </si>
@@ -35,6 +35,9 @@
     <t>|当前道具活动</t>
   </si>
   <si>
+    <t>|模板备注</t>
+  </si>
+  <si>
     <t>|备注</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
     <t>掉落物通用清除</t>
   </si>
   <si>
+    <t>通用掉落物</t>
+  </si>
+  <si>
     <t>prop_mfcjq</t>
   </si>
   <si>
@@ -87,6 +93,9 @@
   </si>
   <si>
     <t>欢乐敲金蛋铜锤（V1-V3）</t>
+  </si>
+  <si>
+    <t>欢乐敲金蛋</t>
   </si>
   <si>
     <t>prop_silver_hammer_1</t>
@@ -274,6 +283,9 @@
     <t>超值礼包抽奖券</t>
   </si>
   <si>
+    <t>礼包抽奖券</t>
+  </si>
+  <si>
     <t>prop_hqjnh_csbox</t>
   </si>
   <si>
@@ -466,9 +478,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -523,76 +535,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,39 +550,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,13 +585,100 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -687,127 +699,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,61 +885,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,6 +931,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -928,6 +955,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -939,41 +981,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1002,11 +1014,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1018,10 +1036,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1030,138 +1048,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1177,6 +1195,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1195,25 +1216,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1536,24 +1575,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="23.375" style="4" customWidth="1"/>
     <col min="4" max="4" width="26" style="4" customWidth="1"/>
     <col min="5" max="5" width="22.125" style="4" customWidth="1"/>
     <col min="6" max="6" width="27.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="17.375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:7">
+    <row r="1" ht="36" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1572,42 +1612,45 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="7">
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="9">
         <v>1591054200</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="10">
         <v>1591635600</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
         <v>9</v>
       </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>10</v>
+      <c r="C3" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="D3" s="4">
         <v>1588633200</v>
@@ -1616,18 +1659,18 @@
         <v>1589216400</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>12</v>
+      <c r="C4" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="D4" s="4">
         <v>1588028400</v>
@@ -1635,19 +1678,20 @@
       <c r="E4" s="4">
         <v>1588611600</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5">
+      <c r="F4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>14</v>
+      <c r="C5" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="D5" s="4">
         <v>1589844600</v>
@@ -1655,39 +1699,43 @@
       <c r="E5" s="4">
         <v>1590422400</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5">
+      <c r="F5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="12">
+      <c r="B6" s="8">
+        <v>0</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="13">
         <v>1625529600</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="13">
         <v>1626105599</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5">
+      <c r="F6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>18</v>
+      <c r="B7" s="8">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="D7" s="4">
         <v>1599523200</v>
@@ -1695,19 +1743,20 @@
       <c r="E7" s="4">
         <v>1603123199</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5">
+      <c r="F7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>20</v>
+      <c r="B8" s="8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="D8" s="4">
         <v>1599523200</v>
@@ -1715,959 +1764,1027 @@
       <c r="E8" s="4">
         <v>1600099199</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" s="5" customFormat="1" ht="16.5" spans="1:6">
+      <c r="F8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="16.5" spans="1:7">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="16">
         <v>1</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="C9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="18">
         <v>1620691200</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="18">
         <v>1626710399</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" s="5" customFormat="1" ht="16.5" spans="1:6">
+      <c r="F9" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" s="5" customFormat="1" ht="16.5" spans="1:7">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="16">
         <v>1</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="8">
+      <c r="C10" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="18">
         <v>1620691200</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="18">
         <v>1626710399</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" s="5" customFormat="1" ht="16.5" spans="1:6">
+      <c r="F10" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" s="5" customFormat="1" ht="16.5" spans="1:7">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="16">
         <v>1</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="18">
+        <v>1620691200</v>
+      </c>
+      <c r="E11" s="18">
+        <v>1626710399</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="8">
-        <v>1620691200</v>
-      </c>
-      <c r="E11" s="8">
-        <v>1626710399</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" s="5" customFormat="1" ht="16.5" spans="1:6">
+    </row>
+    <row r="12" s="5" customFormat="1" ht="16.5" spans="1:7">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="16">
         <v>1</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="8">
+      <c r="C12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="18">
         <v>1620691200</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="18">
         <v>1626710399</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" s="5" customFormat="1" ht="16.5" spans="1:6">
+      <c r="F12" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" s="5" customFormat="1" ht="16.5" spans="1:7">
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="16">
         <v>1</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="8">
+      <c r="C13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="18">
         <v>1620691200</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="18">
         <v>1626710399</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" s="5" customFormat="1" ht="16.5" spans="1:6">
+      <c r="F13" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" s="5" customFormat="1" ht="16.5" spans="1:7">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="16">
         <v>1</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="8">
+      <c r="C14" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="18">
         <v>1620691200</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="18">
         <v>1626710399</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" s="5" customFormat="1" ht="16.5" spans="1:6">
+      <c r="F14" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" s="5" customFormat="1" ht="16.5" spans="1:7">
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="16">
         <v>1</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="8">
+      <c r="C15" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="18">
         <v>1620691200</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="18">
         <v>1626710399</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" s="5" customFormat="1" ht="16.5" spans="1:6">
+      <c r="F15" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" s="5" customFormat="1" ht="16.5" spans="1:7">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="16">
         <v>1</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="8">
+      <c r="C16" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="18">
         <v>1620691200</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="18">
         <v>1626710399</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" s="5" customFormat="1" ht="16.5" spans="1:6">
+      <c r="F16" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" s="5" customFormat="1" ht="16.5" spans="1:7">
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="16">
         <v>1</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="8">
+      <c r="C17" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="18">
         <v>1620691200</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="18">
         <v>1626710399</v>
       </c>
-      <c r="F17" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" s="5" customFormat="1" spans="1:6">
-      <c r="A18" s="5">
+      <c r="F17" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" s="6" customFormat="1" spans="1:7">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="8">
+      <c r="C18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="9">
         <v>1603152000</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="9">
         <v>1603727999</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" s="5" customFormat="1" spans="1:6">
-      <c r="A19" s="5">
+      <c r="F18" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" s="6" customFormat="1" spans="1:7">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="15">
+      <c r="C19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="20">
         <v>1609200000</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="20">
         <v>1609775999</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" s="5" customFormat="1" spans="1:6">
-      <c r="A20" s="5">
+      <c r="F19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" s="6" customFormat="1" spans="1:7">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="15">
+      <c r="C20" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="20">
         <v>1609200000</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="20">
         <v>1609775999</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" s="5" customFormat="1" spans="1:6">
-      <c r="A21" s="5">
+      <c r="F20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" s="6" customFormat="1" spans="1:7">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="7">
-        <v>0</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="15">
+      <c r="B21" s="8">
+        <v>0</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="20">
         <v>1609200000</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="20">
         <v>1609775999</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" s="5" customFormat="1" spans="1:6">
-      <c r="A22" s="5">
+      <c r="F21" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" s="6" customFormat="1" spans="1:7">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="7">
-        <v>0</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="8">
+        <v>0</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="20">
+        <v>1609200000</v>
+      </c>
+      <c r="E22" s="20">
+        <v>1609775999</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="15">
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" s="6" customFormat="1" spans="1:7">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="20">
         <v>1609200000</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E23" s="20">
         <v>1609775999</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" s="5" customFormat="1" spans="1:6">
-      <c r="A23" s="5">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="15">
+      <c r="F23" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" s="6" customFormat="1" spans="1:7">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="20">
         <v>1609200000</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E24" s="20">
         <v>1609775999</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" s="5" customFormat="1" spans="1:6">
-      <c r="A24" s="5">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="15">
+      <c r="F24" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" s="6" customFormat="1" spans="1:7">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="9">
+        <v>1604966400</v>
+      </c>
+      <c r="E25" s="9">
+        <v>1605542399</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" s="6" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8">
+        <v>0</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="9">
+        <v>1606176000</v>
+      </c>
+      <c r="E26" s="9">
+        <v>1606751999</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" s="6" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8">
+        <v>0</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="9">
+        <v>1606176000</v>
+      </c>
+      <c r="E27" s="9">
+        <v>1606751999</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" s="6" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="9">
+        <v>1606176000</v>
+      </c>
+      <c r="E28" s="9">
+        <v>1606751999</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" s="6" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="9">
+        <v>1606176000</v>
+      </c>
+      <c r="E29" s="9">
+        <v>1606751999</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" s="6" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="9">
+        <v>1607385600</v>
+      </c>
+      <c r="E30" s="9">
+        <v>1607961599</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" s="6" customFormat="1" spans="1:7">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8">
+        <v>0</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="9">
+        <v>1607385600</v>
+      </c>
+      <c r="E31" s="9">
+        <v>1607961599</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" s="6" customFormat="1" spans="1:7">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8">
+        <v>0</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="9">
+        <v>1607990400</v>
+      </c>
+      <c r="E32" s="9">
+        <v>1608566399</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" s="6" customFormat="1" spans="1:7">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="20">
+        <v>1608595200</v>
+      </c>
+      <c r="E33" s="20">
+        <v>1609171199</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" s="6" customFormat="1" spans="1:7">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="20">
         <v>1609200000</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E34" s="20">
         <v>1609775999</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" s="5" customFormat="1" spans="1:6">
-      <c r="A25" s="5">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="8">
-        <v>1604966400</v>
-      </c>
-      <c r="E25" s="8">
-        <v>1605542399</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" s="5" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A26" s="5">
-        <v>25</v>
-      </c>
-      <c r="B26" s="7">
-        <v>0</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="8">
-        <v>1606176000</v>
-      </c>
-      <c r="E26" s="8">
-        <v>1606751999</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" s="5" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="B27" s="7">
-        <v>0</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="8">
-        <v>1606176000</v>
-      </c>
-      <c r="E27" s="8">
-        <v>1606751999</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" s="5" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A28" s="5">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="8">
-        <v>1606176000</v>
-      </c>
-      <c r="E28" s="8">
-        <v>1606751999</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" s="5" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A29" s="5">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="8">
-        <v>1606176000</v>
-      </c>
-      <c r="E29" s="8">
-        <v>1606751999</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" s="5" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A30" s="5">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="8">
-        <v>1607385600</v>
-      </c>
-      <c r="E30" s="8">
-        <v>1607961599</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" s="5" customFormat="1" spans="1:6">
-      <c r="A31" s="5">
-        <v>30</v>
-      </c>
-      <c r="B31" s="7">
-        <v>0</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="8">
-        <v>1607385600</v>
-      </c>
-      <c r="E31" s="8">
-        <v>1607961599</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" s="5" customFormat="1" spans="1:6">
-      <c r="A32" s="5">
-        <v>31</v>
-      </c>
-      <c r="B32" s="7">
-        <v>0</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="8">
-        <v>1607990400</v>
-      </c>
-      <c r="E32" s="8">
-        <v>1608566399</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" s="5" customFormat="1" spans="1:6">
-      <c r="A33" s="5">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="15">
-        <v>1608595200</v>
-      </c>
-      <c r="E33" s="15">
-        <v>1609171199</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" s="5" customFormat="1" spans="1:6">
-      <c r="A34" s="5">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="15">
-        <v>1609200000</v>
-      </c>
-      <c r="E34" s="15">
-        <v>1609775999</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" s="5" customFormat="1" spans="1:6">
-      <c r="A35" s="5">
+      <c r="F34" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="20"/>
+    </row>
+    <row r="35" s="6" customFormat="1" spans="1:7">
+      <c r="A35" s="6">
         <v>34</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="15">
+      <c r="C35" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="20">
         <v>1609804800</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="20">
         <v>1610380799</v>
       </c>
-      <c r="F35" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" s="5" customFormat="1" spans="1:6">
+      <c r="F35" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" s="5" customFormat="1" spans="1:7">
       <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="7">
-        <v>0</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="15">
+      <c r="B36" s="16">
+        <v>0</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="19">
         <v>1619481600</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="19">
         <v>1626105599</v>
       </c>
-      <c r="F36" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="5">
+      <c r="F36" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="B37" s="7">
-        <v>0</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="8">
+      <c r="B37" s="8">
+        <v>0</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="9">
         <v>1610409600</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="9">
         <v>1610985599</v>
       </c>
-      <c r="F37" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="5">
+      <c r="F37" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="6">
         <v>37</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="8">
+      <c r="C38" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="9">
         <v>1610409600</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="9">
         <v>1610985599</v>
       </c>
-      <c r="F38" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="5">
+      <c r="F38" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="6">
         <v>38</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="8">
+      <c r="C39" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="9">
         <v>1610409600</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="9">
         <v>1610985599</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="5">
+      <c r="F39" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="6">
         <v>39</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="8">
+      <c r="C40" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="9">
         <v>1611014400</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="9">
         <v>1611590399</v>
       </c>
-      <c r="F40" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="5">
+      <c r="F40" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="6">
         <v>40</v>
       </c>
-      <c r="B41" s="7">
-        <v>0</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D41" s="8">
+      <c r="B41" s="8">
+        <v>0</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="9">
         <v>1611014400</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="9">
         <v>1611590399</v>
       </c>
-      <c r="F41" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="5">
+      <c r="F41" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="6">
         <v>41</v>
       </c>
-      <c r="B42" s="7">
-        <v>0</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D42" s="8">
+      <c r="B42" s="8">
+        <v>0</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="9">
         <v>1611014400</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="9">
         <v>1611590399</v>
       </c>
-      <c r="F42" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="5">
+      <c r="F42" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="6">
         <v>42</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="8">
+      <c r="C43" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="9">
         <v>1611014400</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="9">
         <v>1611590399</v>
       </c>
-      <c r="F43" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" ht="16.5" spans="1:6">
-      <c r="A44" s="5">
+      <c r="F43" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" ht="16.5" spans="1:7">
+      <c r="A44" s="6">
         <v>43</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
-      <c r="C44" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" s="8">
+      <c r="C44" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="9">
         <v>1612828800</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="9">
         <v>1613404799</v>
       </c>
-      <c r="F44" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" ht="16.5" spans="1:6">
-      <c r="A45" s="5">
+      <c r="F44" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" ht="16.5" spans="1:7">
+      <c r="A45" s="6">
         <v>44</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-      <c r="C45" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" s="8">
+      <c r="C45" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="9">
         <v>1612828800</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="9">
         <v>1613404799</v>
       </c>
-      <c r="F45" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" ht="16.5" spans="1:6">
-      <c r="A46" s="5">
+      <c r="F45" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" ht="16.5" spans="1:7">
+      <c r="A46" s="6">
         <v>45</v>
       </c>
-      <c r="B46" s="7">
-        <v>0</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D46" s="8">
+      <c r="B46" s="8">
+        <v>0</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" s="9">
         <v>1612828800</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="9">
         <v>1613404799</v>
       </c>
-      <c r="F46" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" ht="16.5" spans="1:6">
-      <c r="A47" s="5">
+      <c r="F46" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" ht="16.5" spans="1:7">
+      <c r="A47" s="6">
         <v>46</v>
       </c>
-      <c r="B47" s="7">
-        <v>0</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D47" s="8">
+      <c r="B47" s="8">
+        <v>0</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="9">
         <v>1612828800</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="9">
         <v>1613404799</v>
       </c>
-      <c r="F47" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" ht="16.5" spans="1:6">
-      <c r="A48" s="5">
+      <c r="F47" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G47" s="10"/>
+    </row>
+    <row r="48" ht="16.5" spans="1:7">
+      <c r="A48" s="6">
         <v>47</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
-      <c r="C48" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D48" s="8">
+      <c r="C48" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="9">
         <v>1612828800</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E48" s="9">
         <v>1613404799</v>
       </c>
-      <c r="F48" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" ht="16.5" spans="1:6">
-      <c r="A49" s="5">
+      <c r="F48" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" ht="16.5" spans="1:7">
+      <c r="A49" s="6">
         <v>48</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
-      <c r="C49" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49" s="8">
+      <c r="C49" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="9">
         <v>1612828800</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="9">
         <v>1613404799</v>
       </c>
-      <c r="F49" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" ht="16.5" spans="1:6">
-      <c r="A50" s="5">
+      <c r="F49" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G49" s="10"/>
+    </row>
+    <row r="50" ht="16.5" spans="1:7">
+      <c r="A50" s="6">
         <v>49</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
-      <c r="C50" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D50" s="8">
+      <c r="C50" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="9">
         <v>1612828800</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E50" s="9">
         <v>1613404799</v>
       </c>
-      <c r="F50" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="5">
+      <c r="F50" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G50" s="10"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="6">
         <v>50</v>
       </c>
-      <c r="B51" s="7">
-        <v>0</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D51" s="8">
+      <c r="B51" s="8">
+        <v>0</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" s="9">
         <v>1612828800</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E51" s="9">
         <v>1613404799</v>
       </c>
-      <c r="F51" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="5">
+      <c r="F51" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="6">
         <v>51</v>
       </c>
-      <c r="B52" s="7">
-        <v>0</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D52" s="8">
+      <c r="B52" s="8">
+        <v>0</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="9">
         <v>1614038400</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E52" s="9">
         <v>1614614399</v>
       </c>
-      <c r="F52" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="5">
+      <c r="F52" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G52" s="10"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="6">
         <v>52</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D53" s="8">
+      <c r="C53" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="9">
         <v>1614643200</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="9">
         <v>1615219199</v>
       </c>
-      <c r="F53" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="5">
+      <c r="F53" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G53" s="10"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="6">
         <v>53</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
-      <c r="C54" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D54" s="8">
+      <c r="C54" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" s="9">
         <v>1614643200</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E54" s="9">
         <v>1615219199</v>
       </c>
-      <c r="F54" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="5">
+      <c r="F54" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G54" s="10"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="6">
         <v>54</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
-      <c r="C55" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D55" s="8">
+      <c r="C55" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D55" s="9">
         <v>1614643200</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E55" s="9">
         <v>1615219199</v>
       </c>
-      <c r="F55" s="9" t="s">
-        <v>110</v>
-      </c>
+      <c r="F55" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G55" s="10"/>
     </row>
     <row r="56" ht="15.75" spans="1:6">
-      <c r="A56" s="5">
+      <c r="A56" s="6">
         <v>55</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="8">
         <v>1</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D56" s="4">
         <v>1623110400</v>
@@ -2676,18 +2793,18 @@
         <v>1628265599</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" ht="15.75" spans="1:6">
-      <c r="A57" s="5">
+      <c r="A57" s="6">
         <v>56</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="8">
         <v>1</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D57" s="4">
         <v>1623110400</v>
@@ -2696,18 +2813,18 @@
         <v>1628265599</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" ht="15.75" spans="1:6">
-      <c r="A58" s="5">
+      <c r="A58" s="6">
         <v>57</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D58" s="4">
         <v>1623110400</v>
@@ -2716,18 +2833,18 @@
         <v>1628265599</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" ht="15.75" spans="1:6">
-      <c r="A59" s="5">
+      <c r="A59" s="6">
         <v>58</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D59" s="4">
         <v>1623110400</v>
@@ -2736,56 +2853,56 @@
         <v>1628265599</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="7"/>
+      <c r="B61" s="8"/>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="7"/>
+      <c r="B62" s="8"/>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="7"/>
+      <c r="B66" s="8"/>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="7"/>
+      <c r="B67" s="8"/>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="7"/>
+      <c r="B71" s="8"/>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="7"/>
+      <c r="B72" s="8"/>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="7"/>
+      <c r="B76" s="8"/>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="7"/>
+      <c r="B77" s="8"/>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="7"/>
+      <c r="B81" s="8"/>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="7"/>
+      <c r="B82" s="8"/>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="7"/>
+      <c r="B86" s="8"/>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="7"/>
+      <c r="B87" s="8"/>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="7"/>
+      <c r="B91" s="8"/>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="7"/>
+      <c r="B92" s="8"/>
     </row>
     <row r="96" spans="2:2">
-      <c r="B96" s="7"/>
+      <c r="B96" s="8"/>
     </row>
     <row r="97" spans="2:2">
-      <c r="B97" s="7"/>
+      <c r="B97" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2819,7 +2936,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -2828,7 +2945,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:6">
@@ -2839,7 +2956,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D2" s="4">
         <v>1623110400</v>
@@ -2848,7 +2965,7 @@
         <v>1628265599</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:6">
@@ -2859,7 +2976,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D3" s="4">
         <v>1623110400</v>
@@ -2868,7 +2985,7 @@
         <v>1628265599</v>
       </c>
       <c r="F3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:6">
@@ -2879,7 +2996,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D4" s="4">
         <v>1623110400</v>
@@ -2888,7 +3005,7 @@
         <v>1628265599</v>
       </c>
       <c r="F4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:6">
@@ -2899,7 +3016,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D5" s="4">
         <v>1623110400</v>
@@ -2908,7 +3025,7 @@
         <v>1628265599</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/config_7.13/prop_clear_server.xlsx
+++ b/config_7.13/prop_clear_server.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="136">
   <si>
     <t>id|行号</t>
   </si>
@@ -443,6 +443,15 @@
     <t>冲金鸡超级夺宝钥匙（银）</t>
   </si>
   <si>
+    <t>prop_qdlb_cjq_cjj</t>
+  </si>
+  <si>
+    <t>超值礼包抽奖券_cjj</t>
+  </si>
+  <si>
+    <t>礼包抽奖券_cjj</t>
+  </si>
+  <si>
     <t>type|类型</t>
   </si>
   <si>
@@ -478,9 +487,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -535,7 +544,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,50 +610,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,31 +634,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -646,11 +649,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -677,6 +679,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -711,187 +720,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,30 +940,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -977,6 +962,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1036,10 +1045,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1048,133 +1057,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1578,9 +1587,9 @@
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N30" sqref="N30"/>
+      <selection pane="bottomLeft" activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2854,6 +2863,29 @@
       </c>
       <c r="F59" s="4" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="60" s="5" customFormat="1" spans="1:7">
+      <c r="A60" s="6">
+        <v>59</v>
+      </c>
+      <c r="B60" s="16">
+        <v>1</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60" s="19">
+        <v>1619481600</v>
+      </c>
+      <c r="E60" s="19">
+        <v>1627315199</v>
+      </c>
+      <c r="F60" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="G60" s="24" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="2:2">
@@ -2936,7 +2968,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -2945,7 +2977,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:6">
@@ -2956,7 +2988,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4">
         <v>1623110400</v>
@@ -2965,7 +2997,7 @@
         <v>1628265599</v>
       </c>
       <c r="F2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:6">
@@ -2976,7 +3008,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D3" s="4">
         <v>1623110400</v>
@@ -2985,7 +3017,7 @@
         <v>1628265599</v>
       </c>
       <c r="F3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:6">
@@ -2996,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D4" s="4">
         <v>1623110400</v>
@@ -3005,7 +3037,7 @@
         <v>1628265599</v>
       </c>
       <c r="F4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:6">
@@ -3016,7 +3048,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D5" s="4">
         <v>1623110400</v>
@@ -3025,7 +3057,7 @@
         <v>1628265599</v>
       </c>
       <c r="F5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
